--- a/SupportingDocs/WIMR_Config_testing.xlsx
+++ b/SupportingDocs/WIMR_Config_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Flinders-EEG-pipeline\Flinders-EEG-pipeline\SupportingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207208F4-C034-4F2A-9349-97D8ADEF93C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B6E000-BB0A-43D3-A2CF-FA55992D3C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-5355" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/SupportingDocs/WIMR_Config_testing.xlsx
+++ b/SupportingDocs/WIMR_Config_testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Flinders-EEG-pipeline\Flinders-EEG-pipeline\SupportingDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OG_Repos\Flinders-EEG-pipeline\SupportingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B6E000-BB0A-43D3-A2CF-FA55992D3C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17BE9FC-60D3-44F3-9691-AC9AC6C6E9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5355" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,26 +444,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="107.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="107.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>810</v>
       </c>

--- a/SupportingDocs/WIMR_Config_testing.xlsx
+++ b/SupportingDocs/WIMR_Config_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OG_Repos\Flinders-EEG-pipeline\SupportingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17BE9FC-60D3-44F3-9691-AC9AC6C6E9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7B68F5-3C30-4901-A837-FD0AF5F473C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/SupportingDocs/WIMR_Config_testing.xlsx
+++ b/SupportingDocs/WIMR_Config_testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OG_Repos\Flinders-EEG-pipeline\SupportingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7B68F5-3C30-4901-A837-FD0AF5F473C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52752514-28F6-4BEC-BA48-7291F8AC5087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,26 +444,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="107.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="107.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>810</v>
       </c>
@@ -546,9 +546,6 @@
       </c>
       <c r="C2">
         <v>64</v>
-      </c>
-      <c r="D2">
-        <v>256</v>
       </c>
       <c r="E2">
         <v>100</v>

--- a/SupportingDocs/WIMR_Config_testing.xlsx
+++ b/SupportingDocs/WIMR_Config_testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OG_Repos\Flinders-EEG-pipeline\SupportingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52752514-28F6-4BEC-BA48-7291F8AC5087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2666DA-A1AE-4FE0-BF8C-3927A80D3F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>1;2; 3; 4; 5; 6</t>
   </si>
   <si>
-    <t>112; 114; 122; 124</t>
-  </si>
-  <si>
     <t>111; 112; 113; 114; 121; 122; 123; 124; 131; 132; 133; 134</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>CustomAR</t>
+  </si>
+  <si>
+    <t>112; 114; 122; 124; 132; 134</t>
   </si>
 </sst>
 </file>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,25 +516,25 @@
         <v>9</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -551,13 +551,13 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>-0.5</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2">
         <v>2048</v>
@@ -590,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V2">
         <v>0</v>
